--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/EPSY630 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46B4B34-87F9-EE4B-A00B-5F4316EEA247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A12A6A-CEC2-0547-AE50-E54DC7DF3B9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="8060" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1680" yWindow="12400" windowWidth="27440" windowHeight="15200" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -50,72 +50,12 @@
     <t>EndTime</t>
   </si>
   <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
     <t>President's Day</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
-    <t>Week 2 Meetup</t>
-  </si>
-  <si>
-    <t>Week 3 Meetup</t>
-  </si>
-  <si>
-    <t>Week 4 Meetup</t>
-  </si>
-  <si>
-    <t>Week 5 Meetup</t>
-  </si>
-  <si>
-    <t>Week 6 Meetup</t>
-  </si>
-  <si>
-    <t>Week 7 Meetup</t>
-  </si>
-  <si>
-    <t>Week 8 Meetup</t>
-  </si>
-  <si>
-    <t>Week 10 Meetup</t>
-  </si>
-  <si>
-    <t>Week 11 Meetup</t>
-  </si>
-  <si>
-    <t>Week 12 Meetup</t>
-  </si>
-  <si>
-    <t>Week 13 Meetup</t>
-  </si>
-  <si>
-    <t>Week 14 Meetup</t>
-  </si>
-  <si>
     <t>NO CLASS</t>
   </si>
   <si>
@@ -128,22 +68,40 @@
     <t>No classes</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
     <t>Intro to the Course / Intro to R and RStudio</t>
+  </si>
+  <si>
+    <t>Project Presenations</t>
+  </si>
+  <si>
+    <t>Descriptive Statistics / Data Visualizaiton</t>
+  </si>
+  <si>
+    <t>Central Limit Theorem</t>
+  </si>
+  <si>
+    <t>Null hypotheis testing / confidence intervals /boostrapping</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Multiple Regression</t>
+  </si>
+  <si>
+    <t>Maximum Likelihood Estimation / Logistic Regression</t>
+  </si>
+  <si>
+    <t>ANOVA - Chi-Squared Tests</t>
+  </si>
+  <si>
+    <t>Bayesian Analysis</t>
+  </si>
+  <si>
+    <t>Propensity Score Analysis</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -517,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,13 +509,13 @@
         <v>44229</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -565,13 +523,13 @@
         <v>44236</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -579,13 +537,13 @@
         <v>44243</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -593,13 +551,13 @@
         <v>44250</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -607,13 +565,13 @@
         <v>44257</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -621,13 +579,13 @@
         <v>44264</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -635,13 +593,13 @@
         <v>44271</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -649,13 +607,13 @@
         <v>44278</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -663,13 +621,13 @@
         <v>44285</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -677,7 +635,7 @@
         <v>44292</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -685,10 +643,10 @@
         <v>44299</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -699,13 +657,13 @@
         <v>44306</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -713,13 +671,13 @@
         <v>44313</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,13 +685,13 @@
         <v>44320</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -741,13 +699,13 @@
         <v>44327</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -758,10 +716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -792,7 +750,7 @@
         <v>44234</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -803,7 +761,7 @@
         <v>44241</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -814,7 +772,7 @@
         <v>44242</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -825,7 +783,7 @@
         <v>44248</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -836,7 +794,7 @@
         <v>44255</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -847,7 +805,7 @@
         <v>44262</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -858,7 +816,7 @@
         <v>44259</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -869,7 +827,7 @@
         <v>44269</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -880,7 +838,7 @@
         <v>44276</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -891,7 +849,7 @@
         <v>44283</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -902,7 +860,7 @@
         <v>44290</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -913,7 +871,7 @@
         <v>44293</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -924,7 +882,7 @@
         <v>44304</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -935,7 +893,7 @@
         <v>44311</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -946,18 +904,7 @@
         <v>44318</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>44319</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44327</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/EPSY630 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A12A6A-CEC2-0547-AE50-E54DC7DF3B9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629423EF-F179-7541-835D-1FF8CC023074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="12400" windowWidth="27440" windowHeight="15200" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/kxa3gb7kSCU), [Slides](/slides/00-Intro_to_Course.html)</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,6 +754,9 @@
       </c>
       <c r="C2" t="s">
         <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/EPSY630 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629423EF-F179-7541-835D-1FF8CC023074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0958E64-1F57-124F-B039-A2E0088B3D29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="12400" windowWidth="27440" windowHeight="15200" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/kxa3gb7kSCU), [Slides](/slides/00-Intro_to_Course.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/RNUJKKj3kL4), [Slides](/slides/2021-02-09-Intro_to_R.html)</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,6 +771,9 @@
       </c>
       <c r="C3" t="s">
         <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/EPSY630 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0958E64-1F57-124F-B039-A2E0088B3D29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CAE189-A4DD-0144-A87E-01BC07FC8392}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="12400" windowWidth="27440" windowHeight="15200" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="5320" yWindow="11260" windowWidth="27440" windowHeight="15200" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Maximum Likelihood Estimation / Logistic Regression</t>
   </si>
   <si>
-    <t>ANOVA - Chi-Squared Tests</t>
-  </si>
-  <si>
     <t>Bayesian Analysis</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/RNUJKKj3kL4), [Slides](/slides/2021-02-09-Intro_to_R.html)</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -619,7 +619,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -633,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -669,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,7 +759,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -860,9 +860,6 @@
       <c r="B11" s="2">
         <v>44283</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -871,9 +868,6 @@
       <c r="B12" s="2">
         <v>44290</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -894,7 +888,7 @@
         <v>44304</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -905,7 +899,7 @@
         <v>44311</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -916,7 +910,7 @@
         <v>44318</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/EPSY630 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CAE189-A4DD-0144-A87E-01BC07FC8392}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2357FD24-3FA9-CF47-9426-AEEC65FD266B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5320" yWindow="11260" windowWidth="27440" windowHeight="15200" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Maximum Likelihood Estimation</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -633,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/EPSY630 2021 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2357FD24-3FA9-CF47-9426-AEEC65FD266B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4780958-3662-3E4E-AD85-9A68FD0D6928}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5320" yWindow="11260" windowWidth="27440" windowHeight="15200" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Maximum Likelihood Estimation</t>
+  </si>
+  <si>
+    <t>Review</t>
   </si>
 </sst>
 </file>
@@ -675,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
